--- a/results/incremental_feature_gp_replica1.xlsx
+++ b/results/incremental_feature_gp_replica1.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="breast_cancer" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sonar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="breast_cancer_wisconsin" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +447,201 @@
         <is>
           <t>FS_MSE</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSIC-SV_avg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSIC-SV_std</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSICLasso_avg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSICLasso_std</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mutual_info_avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mutual_info_std</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lasso_avg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.000000645916559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lasso_std</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.040595769142017e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>k_best_avg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>k_best_std</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tree_ensemble_avg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tree_ensemble_std</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_avg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_std</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>selected_features</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -459,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,14 +699,391 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HSICLasso_avg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7501742160278745</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.807897793263647</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSICLasso_std</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03787506130090925</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04448088469848283</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mutual_info_avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7639953542392567</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8752613240418118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mutual_info_std</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07144754853996114</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05264207622930137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lasso_avg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.783623693379791</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8416957026713124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lasso_std</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01527459439978965</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03770049871052335</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>k_best_avg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7259001161440187</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7789779326364691</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>k_best_std</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.06210936459228377</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04025961149676432</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tree_ensemble_avg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8317073170731707</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8365853658536585</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tree_ensemble_std</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06976128381935991</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0591532330149161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_avg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7933797909407664</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8076655052264808</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_std</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.07133020619988951</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.03038759039779112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>selected_features</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>FS_Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSIC-SV_avg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9015370284117374</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9085700978108988</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSIC-SV_std</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.02587528540388847</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02877642728853561</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSICLasso_avg</t>
+        </is>
+      </c>
       <c r="B4" t="n">
+        <v>0.8506132588107438</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8839931687626146</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSICLasso_std</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01665193548021661</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01038687601836625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mutual_info_avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9050302748020493</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9085856233504114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mutual_info_std</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02658608001339103</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0154688921542219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lasso_avg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9120478186616985</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.899782642446825</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>lasso_std</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02810894533904731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02413684680033194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>k_best_avg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9155876416705482</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9085856233504114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>k_best_std</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03186828681215175</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0154688921542219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tree_ensemble_avg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9155876416705482</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8874243129948767</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tree_ensemble_std</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04000478753823088</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03349627144174483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_avg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9015370284117374</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9085700978108988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSIC-SV_absolute_std</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02587528540388847</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02877642728853561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>selected_features</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
         <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
